--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martim\Documents\Trabalhos42\Libft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martim\Documents\Trabalhos42\LibftMains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8043014-11EC-4661-9DCA-F557985BC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED873906-4221-4AD1-956C-1C8C846A55F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0E57A14E-2A69-44E5-899C-C77892A701F5}"/>
+    <workbookView xWindow="6630" yWindow="1140" windowWidth="18960" windowHeight="11835" xr2:uid="{0E57A14E-2A69-44E5-899C-C77892A701F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -472,6 +478,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CEAAF9-1984-47EA-B4A1-C2645901C465}">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,10 +871,10 @@
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
@@ -1009,10 +1018,10 @@
       <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -1036,10 +1045,10 @@
       <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
@@ -1054,10 +1063,10 @@
       <c r="B28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
@@ -1072,10 +1081,10 @@
       <c r="B30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">

--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martim\Documents\Trabalhos42\LibftMains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED873906-4221-4AD1-956C-1C8C846A55F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BFF60-11B7-48AA-A0C9-0949D7F7BF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="1140" windowWidth="18960" windowHeight="11835" xr2:uid="{0E57A14E-2A69-44E5-899C-C77892A701F5}"/>
+    <workbookView xWindow="7860" yWindow="1740" windowWidth="18960" windowHeight="11835" xr2:uid="{0E57A14E-2A69-44E5-899C-C77892A701F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Function</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -452,14 +455,9 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -477,10 +475,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,7 +817,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,330 +828,358 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="18"/>
+      <c r="H3">
+        <f>COUNTBLANK(F3:F36)</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="19"/>
       <c r="H11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B36">

--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -545,7 +545,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,7 +582,7 @@
       <c r="F3" s="8"/>
       <c r="H3" s="0" t="n">
         <f aca="false">COUNTBLANK(F3:F36)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,10 +770,12 @@
       <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
@@ -866,14 +868,16 @@
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">

--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -368,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,10 +430,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,8 +540,8 @@
   </sheetPr>
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,7 +578,7 @@
       <c r="F3" s="8"/>
       <c r="H3" s="0" t="n">
         <f aca="false">COUNTBLANK(F3:F36)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,10 +672,12 @@
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
@@ -697,7 +695,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
@@ -706,7 +704,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -773,7 +771,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -810,10 +808,10 @@
       <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -875,7 +873,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -909,13 +907,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -40,10 +40,10 @@
     <t xml:space="preserve">ft_atoi.c</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">ft_bzero.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">ft_calloc.c</t>
@@ -211,14 +211,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC55757"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FF45D776"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF45D776"/>
-        <bgColor rgb="FF339966"/>
+        <fgColor rgb="FFC55757"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -401,7 +401,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,6 +409,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,47 +429,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,8 +540,8 @@
   </sheetPr>
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,21 +575,23 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" s="0" t="n">
         <f aca="false">COUNTBLANK(F3:F36)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,7 +611,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,7 +622,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +633,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +644,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +655,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,17 +678,19 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
@@ -695,7 +699,9 @@
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
@@ -705,7 +711,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,7 +722,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,7 +778,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +789,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +818,7 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,7 +829,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,7 +840,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,17 +860,19 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
@@ -874,7 +882,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +911,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,7 +922,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -540,8 +540,8 @@
   </sheetPr>
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">COUNTBLANK(F3:F36)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,10 +598,12 @@
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
@@ -898,10 +900,12 @@
       <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="s">

--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t xml:space="preserve">Function</t>
   </si>
@@ -541,7 +541,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">COUNTBLANK(F3:F36)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,10 +664,12 @@
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H11" s="0" t="s">
         <v>15</v>
       </c>
@@ -807,10 +809,12 @@
       <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
@@ -891,10 +895,12 @@
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">

--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martim\Documents\Trabalhos42\LibftMains\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8149A6-421D-4609-AF35-55F0B7296D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="7860" yWindow="1740" windowWidth="18960" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,139 +32,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makefile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libft.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_atoi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_bzero.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_calloc.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_isalnum.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_isalpha.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_isascii.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_isdigit.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_isprint.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_itoa.c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Makefile</t>
+  </si>
+  <si>
+    <t>Libft.h</t>
+  </si>
+  <si>
+    <t>Written</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>ft_atoi.c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ft_bzero.c</t>
+  </si>
+  <si>
+    <t>ft_calloc.c</t>
+  </si>
+  <si>
+    <t>ft_isalnum.c</t>
+  </si>
+  <si>
+    <t>ft_isalpha.c</t>
+  </si>
+  <si>
+    <t>ft_isascii.c</t>
+  </si>
+  <si>
+    <t>ft_isdigit.c</t>
+  </si>
+  <si>
+    <t>ft_isprint.c</t>
+  </si>
+  <si>
+    <t>ft_itoa.c</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">ft_memchr.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_memcmp.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_memcpy.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_memmove.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_memset.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putchar_fd.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putendl_fd.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putnbr_fd.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_putstr_fd.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_split.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strchr.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strdup.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_striteri.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strjoin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strlcat.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strlcpy.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strlen.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strmapi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strncmp.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strnstr.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strrchr.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_strtrim.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_substr.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_tolower.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft_toupper.c</t>
+    <t>ft_memchr.c</t>
+  </si>
+  <si>
+    <t>ft_memcmp.c</t>
+  </si>
+  <si>
+    <t>ft_memcpy.c</t>
+  </si>
+  <si>
+    <t>ft_memmove.c</t>
+  </si>
+  <si>
+    <t>ft_memset.c</t>
+  </si>
+  <si>
+    <t>ft_putchar_fd.c</t>
+  </si>
+  <si>
+    <t>ft_putendl_fd.c</t>
+  </si>
+  <si>
+    <t>ft_putnbr_fd.c</t>
+  </si>
+  <si>
+    <t>ft_putstr_fd.c</t>
+  </si>
+  <si>
+    <t>ft_split.c</t>
+  </si>
+  <si>
+    <t>ft_strchr.c</t>
+  </si>
+  <si>
+    <t>ft_strdup.c</t>
+  </si>
+  <si>
+    <t>ft_striteri.c</t>
+  </si>
+  <si>
+    <t>ft_strjoin.c</t>
+  </si>
+  <si>
+    <t>ft_strlcat.c</t>
+  </si>
+  <si>
+    <t>ft_strlcpy.c</t>
+  </si>
+  <si>
+    <t>ft_strlen.c</t>
+  </si>
+  <si>
+    <t>ft_strmapi.c</t>
+  </si>
+  <si>
+    <t>ft_strncmp.c</t>
+  </si>
+  <si>
+    <t>ft_strnstr.c</t>
+  </si>
+  <si>
+    <t>ft_strrchr.c</t>
+  </si>
+  <si>
+    <t>ft_strtrim.c</t>
+  </si>
+  <si>
+    <t>ft_substr.c</t>
+  </si>
+  <si>
+    <t>ft_tolower.c</t>
+  </si>
+  <si>
+    <t>ft_toupper.c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,22 +170,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -190,7 +184,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,255 +215,302 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45D776"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -528,30 +569,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF45D776"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="12.57"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -578,12 +929,12 @@
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">COUNTBLANK(F3:F36)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3">
+        <f>COUNTBLANK(F3:F36)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -594,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -605,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -616,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -627,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
@@ -638,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
@@ -649,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -660,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
@@ -670,11 +1021,11 @@
       <c r="F11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
@@ -685,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
@@ -696,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
@@ -707,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -718,7 +1069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
@@ -729,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
@@ -738,7 +1089,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
@@ -747,7 +1098,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
@@ -756,7 +1107,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
@@ -765,16 +1116,18 @@
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
@@ -785,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
@@ -796,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
@@ -805,7 +1158,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
@@ -816,7 +1169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
@@ -827,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
@@ -838,7 +1191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
@@ -849,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
@@ -858,7 +1211,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
@@ -869,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
@@ -880,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>36</v>
       </c>
@@ -891,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
@@ -902,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
@@ -913,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
@@ -924,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
         <v>40</v>
       </c>
@@ -936,12 +1289,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Libft.xlsx
+++ b/Libft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martim\Documents\Trabalhos42\LibftMains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8149A6-421D-4609-AF35-55F0B7296D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBCAA1E-E639-4D8B-BE3A-9F2FB803FB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="1740" windowWidth="18960" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Function</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Libft.h</t>
   </si>
   <si>
-    <t>Written</t>
-  </si>
-  <si>
     <t>Working</t>
   </si>
   <si>
@@ -155,6 +152,12 @@
   </si>
   <si>
     <t>ft_toupper.c</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,18 +214,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC55757"/>
+        <fgColor rgb="FF45D776"/>
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF45D776"/>
+        <fgColor rgb="FFFF6565"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6565"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6565"/>
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -246,49 +261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -302,7 +274,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -313,13 +287,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -332,7 +323,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -348,16 +341,182 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -367,8 +526,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -376,81 +535,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,51 +544,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,6 +682,9 @@
     </indexedColors>
     <mruColors>
       <color rgb="FF45D776"/>
+      <color rgb="FFFF6565"/>
+      <color rgb="FFFF4B4B"/>
+      <color rgb="FFFF2F2F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -890,403 +995,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="26"/>
+      <c r="H3">
+        <f>COUNTBLANK(E3:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>COUNTBLANK(F3:F36)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
-        <f>COUNTBLANK(F3:F36)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22" t="s">
-        <v>6</v>
-      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
